--- a/data/extracted_data/raw/timeseries/Wohlgeschaffen_etal_1992 _Figs5+6.xlsx
+++ b/data/extracted_data/raw/timeseries/Wohlgeschaffen_etal_1992 _Figs5+6.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB474E4-39D4-5F46-8D26-42920ACA0893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731C601-888E-DE49-865A-C6D18B6261C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="3040" windowWidth="27240" windowHeight="16440" xr2:uid="{F365D684-AAE1-3745-8566-1242B220DD88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>species</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Figure 6</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,6 +615,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -629,6 +635,9 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
@@ -646,6 +655,9 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
@@ -663,6 +675,9 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -680,6 +695,9 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -696,6 +714,9 @@
       </c>
       <c r="B13" t="s">
         <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
